--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2525031.380936821</v>
+        <v>2522575.25968884</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1379,13 +1379,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>179.2270913718357</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>307.5272957798212</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1531,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E13" t="n">
         <v>99.45882602797661</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
@@ -1607,13 +1607,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750002</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>112.7543740688568</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5089593766778</v>
+        <v>220.0842845676984</v>
       </c>
       <c r="C17" t="n">
         <v>297.0480094842047</v>
@@ -1853,7 +1853,7 @@
         <v>313.705487785459</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>338.6511634549086</v>
       </c>
       <c r="G17" t="n">
         <v>342.6968433666506</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96287950137298</v>
+        <v>40.962879501373</v>
       </c>
       <c r="T17" t="n">
         <v>135.6930878528173</v>
       </c>
       <c r="U17" t="n">
-        <v>108.9837219487775</v>
+        <v>182.7702896720991</v>
       </c>
       <c r="V17" t="n">
         <v>259.5273761833321</v>
@@ -1910,7 +1910,7 @@
         <v>301.5062183916662</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0130563692508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2087,10 +2087,10 @@
         <v>286.4581593338801</v>
       </c>
       <c r="E20" t="n">
-        <v>313.705487785459</v>
+        <v>239.9189200621367</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6511634549086</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>342.6968433666506</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96287950137304</v>
       </c>
       <c r="T20" t="n">
         <v>135.6930878528173</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7702896720991</v>
+        <v>182.7702896720992</v>
       </c>
       <c r="V20" t="n">
         <v>259.5273761833321</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>281.0160864306102</v>
       </c>
       <c r="X20" t="n">
         <v>301.5062183916662</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.5542911230046</v>
+        <v>318.0130563692508</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>111.6070978951345</v>
       </c>
       <c r="C22" t="n">
-        <v>99.021938811825</v>
+        <v>99.02193881182502</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39059073140952</v>
+        <v>80.39059073140955</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20908035976633</v>
+        <v>78.20908035976636</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19616573612841</v>
+        <v>77.19616573612844</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80092597222539</v>
+        <v>97.80092597222541</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53013262751794</v>
+        <v>76.53013262751797</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12753812303526</v>
+        <v>28.12753812303529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70727038324449</v>
+        <v>20.70727038324452</v>
       </c>
       <c r="S22" t="n">
         <v>121.5441430446391</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96287950137298</v>
+        <v>40.962879501373</v>
       </c>
       <c r="T23" t="n">
         <v>135.6930878528173</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7702896720991</v>
+        <v>182.7702896720992</v>
       </c>
       <c r="V23" t="n">
         <v>259.5273761833321</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>111.6070978951345</v>
       </c>
       <c r="C25" t="n">
-        <v>99.021938811825</v>
+        <v>99.02193881182502</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39059073140952</v>
+        <v>80.39059073140955</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20908035976633</v>
+        <v>78.20908035976636</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19616573612841</v>
+        <v>77.19616573612844</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80092597222539</v>
+        <v>97.80092597222541</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53013262751794</v>
+        <v>76.53013262751797</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12753812303526</v>
+        <v>28.12753812303527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70727038324449</v>
+        <v>20.70727038324451</v>
       </c>
       <c r="S25" t="n">
         <v>121.5441430446391</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515424</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572579</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124481</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128494</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797505</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572828</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124559</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145483</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128481</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575767</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.0333140945057</v>
+        <v>310.0333140945058</v>
       </c>
       <c r="C35" t="n">
-        <v>292.5723642020327</v>
+        <v>292.5723642020328</v>
       </c>
       <c r="D35" t="n">
-        <v>281.9825140517081</v>
+        <v>281.9825140517082</v>
       </c>
       <c r="E35" t="n">
-        <v>309.2298425032869</v>
+        <v>309.229842503287</v>
       </c>
       <c r="F35" t="n">
-        <v>334.1755181727366</v>
+        <v>334.1755181727367</v>
       </c>
       <c r="G35" t="n">
-        <v>338.2211980844786</v>
+        <v>338.2211980844787</v>
       </c>
       <c r="H35" t="n">
-        <v>221.9072368183456</v>
+        <v>221.9072368183457</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48723421920097</v>
+        <v>36.4872342192011</v>
       </c>
       <c r="T35" t="n">
-        <v>131.2174425706453</v>
+        <v>131.2174425706454</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2946443899271</v>
+        <v>178.2946443899272</v>
       </c>
       <c r="V35" t="n">
-        <v>255.0517309011601</v>
+        <v>255.0517309011602</v>
       </c>
       <c r="W35" t="n">
-        <v>276.5404411484382</v>
+        <v>276.5404411484383</v>
       </c>
       <c r="X35" t="n">
-        <v>297.0305731094942</v>
+        <v>297.0305731094943</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.5374110870787</v>
+        <v>313.5374110870789</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.1314526129624</v>
+        <v>107.1314526129626</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54629352965297</v>
+        <v>94.5462935296531</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91494544923749</v>
+        <v>75.91494544923762</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73343507759431</v>
+        <v>73.73343507759444</v>
       </c>
       <c r="F37" t="n">
-        <v>72.72052045395638</v>
+        <v>72.72052045395651</v>
       </c>
       <c r="G37" t="n">
-        <v>136.60888469711</v>
+        <v>93.32528069005349</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05448734534592</v>
+        <v>72.05448734534605</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65189284086323</v>
+        <v>23.65189284086336</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23162510107247</v>
+        <v>16.23162510107259</v>
       </c>
       <c r="S37" t="n">
-        <v>117.068497762467</v>
+        <v>117.0684977624672</v>
       </c>
       <c r="T37" t="n">
-        <v>146.8484217071943</v>
+        <v>190.1320257142488</v>
       </c>
       <c r="U37" t="n">
-        <v>213.511310636638</v>
+        <v>213.5113106366381</v>
       </c>
       <c r="V37" t="n">
-        <v>179.4371157548532</v>
+        <v>179.4371157548533</v>
       </c>
       <c r="W37" t="n">
-        <v>213.8224707676162</v>
+        <v>213.8224707676163</v>
       </c>
       <c r="X37" t="n">
-        <v>153.0091278200623</v>
+        <v>153.0091278200624</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8841257831199</v>
+        <v>145.8841257831201</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48723421920106</v>
+        <v>36.48723421920101</v>
       </c>
       <c r="T38" t="n">
         <v>131.2174425706453</v>
@@ -3661,25 +3661,25 @@
         <v>107.1314526129625</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54629352965306</v>
+        <v>94.54629352965303</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91494544923758</v>
+        <v>75.91494544923755</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73343507759439</v>
+        <v>73.73343507759436</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72052045395647</v>
+        <v>72.72052045395644</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32528069005345</v>
+        <v>93.32528069005342</v>
       </c>
       <c r="H40" t="n">
-        <v>72.054487345346</v>
+        <v>72.05448734534598</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65189284086332</v>
+        <v>23.65189284086329</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>59.51522910812812</v>
+        <v>16.23162510107252</v>
       </c>
       <c r="S40" t="n">
         <v>117.0684977624671</v>
@@ -3718,7 +3718,7 @@
         <v>213.5113106366381</v>
       </c>
       <c r="V40" t="n">
-        <v>179.4371157548532</v>
+        <v>222.7207197619087</v>
       </c>
       <c r="W40" t="n">
         <v>213.8224707676162</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>318.0431909701819</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>251.4237434982379</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958331</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>293.0975153007324</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.7006692714369</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1949.376240813992</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.863356821653</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.047291162976</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>978.7086715128055</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F11" t="n">
-        <v>615.1723996712713</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>247.5495824643406</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5069,7 +5069,7 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638544</v>
@@ -5078,13 +5078,13 @@
         <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243047</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.52644793004</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2288.52644793004</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5109,28 +5109,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5179,13 +5179,13 @@
         <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5200,10 +5200,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923807</v>
@@ -5270,58 +5270,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.524977831081</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2814.20595550904</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031477</v>
@@ -5419,7 +5419,7 @@
         <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770414</v>
@@ -5431,7 +5431,7 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315255</v>
@@ -5440,10 +5440,10 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5455,19 +5455,19 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1547.614522564216</v>
+        <v>1889.686404841901</v>
       </c>
       <c r="C17" t="n">
-        <v>1247.566028135726</v>
+        <v>1589.637910413412</v>
       </c>
       <c r="D17" t="n">
-        <v>958.2143520408977</v>
+        <v>1300.286234318583</v>
       </c>
       <c r="E17" t="n">
-        <v>641.3401219545756</v>
+        <v>983.4120042322611</v>
       </c>
       <c r="F17" t="n">
         <v>641.3401219545756</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1816943114941</v>
+        <v>295.1816943114942</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.229175648188</v>
+        <v>3284.229175648187</v>
       </c>
       <c r="T17" t="n">
         <v>3147.165450544332</v>
       </c>
       <c r="U17" t="n">
-        <v>3037.080882919304</v>
+        <v>2962.54899633009</v>
       </c>
       <c r="V17" t="n">
-        <v>2774.932018087655</v>
+        <v>2700.400131498442</v>
       </c>
       <c r="W17" t="n">
-        <v>2491.077385329463</v>
+        <v>2416.54549874025</v>
       </c>
       <c r="X17" t="n">
-        <v>2186.525649580306</v>
+        <v>2111.993762991092</v>
       </c>
       <c r="Y17" t="n">
-        <v>1865.300340116416</v>
+        <v>2111.993762991092</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5665,19 +5665,19 @@
         <v>172.2269353721362</v>
       </c>
       <c r="H19" t="n">
-        <v>94.923771101916</v>
+        <v>94.92377110191599</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>140.2475978767912</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2347808256675</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>660.7945792741637</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
         <v>1004.951624873713</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.686404841902</v>
+        <v>1473.082635975002</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.637910413412</v>
+        <v>1173.034141546512</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.286234318583</v>
+        <v>883.6824654516836</v>
       </c>
       <c r="E20" t="n">
-        <v>983.412004232261</v>
+        <v>641.3401219545756</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3401219545755</v>
+        <v>641.3401219545756</v>
       </c>
       <c r="G20" t="n">
         <v>295.1816943114942</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.229175648187</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.542096505315</v>
+        <v>3147.165450544331</v>
       </c>
       <c r="U20" t="n">
-        <v>3003.925642291074</v>
+        <v>2962.54899633009</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.776777459425</v>
+        <v>2700.400131498441</v>
       </c>
       <c r="W20" t="n">
-        <v>2741.776777459425</v>
+        <v>2416.545498740249</v>
       </c>
       <c r="X20" t="n">
-        <v>2437.225041710268</v>
+        <v>2111.993762991091</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.372222394101</v>
+        <v>1790.768453527201</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.215522858353</v>
+        <v>609.2155228583532</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1933624423681</v>
+        <v>509.1933624423683</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9907455419544</v>
+        <v>427.9907455419547</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9916744714834</v>
+        <v>348.9916744714836</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0157494854951</v>
+        <v>271.0157494854952</v>
       </c>
       <c r="G22" t="n">
         <v>172.2269353721362</v>
       </c>
       <c r="H22" t="n">
-        <v>94.923771101916</v>
+        <v>94.92377110191602</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5920,7 +5920,7 @@
         <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.360001579577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1645.689600499991</v>
@@ -5950,10 +5950,10 @@
         <v>1032.904050194374</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8285218082787</v>
+        <v>873.8285218082789</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9499651766706</v>
+        <v>721.9499651766708</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.188522573879</v>
+        <v>1898.18852257388</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.140028145389</v>
+        <v>1598.14002814539</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.788352050561</v>
+        <v>1308.788352050562</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9141219642388</v>
+        <v>991.9141219642394</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8422396865533</v>
+        <v>649.8422396865539</v>
       </c>
       <c r="G23" t="n">
         <v>303.6838120434717</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01423416416095</v>
+        <v>75.01423416416097</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01423416416095</v>
+        <v>75.01423416416097</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8933651231864</v>
+        <v>361.9164129003178</v>
       </c>
       <c r="K23" t="n">
-        <v>597.712738813033</v>
+        <v>695.7357865901644</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.231554466388</v>
+        <v>1146.769999838573</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.882625600265</v>
+        <v>1680.301904510498</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.661442659048</v>
+        <v>2227.08072156928</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.633913538385</v>
+        <v>2730.053192448618</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.408279895563</v>
+        <v>3443.408279895564</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.694641651245</v>
+        <v>3691.694641651246</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.711708208048</v>
+        <v>3750.711708208049</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.335062247065</v>
+        <v>3709.335062247066</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.271337143209</v>
+        <v>3572.27133714321</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.654882928967</v>
+        <v>3387.654882928968</v>
       </c>
       <c r="V23" t="n">
         <v>3125.506018097319</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.651385339126</v>
+        <v>2841.651385339127</v>
       </c>
       <c r="X23" t="n">
         <v>2537.099649589969</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0459722130862</v>
+        <v>950.0459722130859</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5929429319592</v>
+        <v>775.5929429319589</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6585332707079</v>
+        <v>626.6585332707077</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4210782652524</v>
+        <v>467.4210782652522</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8865202921373</v>
+        <v>320.8865202921372</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5234201247555</v>
+        <v>184.5234201247559</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02152576262299</v>
+        <v>94.02152576262336</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01423416416095</v>
+        <v>75.01423416416097</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6915036547783</v>
+        <v>168.6915036547781</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9557026351254</v>
+        <v>406.9557026351255</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6538629477908</v>
+        <v>773.6538629477906</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930188170107</v>
+        <v>1220.930188170106</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453231724561</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7176405903306</v>
+        <v>617.7176405903308</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6954801743457</v>
+        <v>517.6954801743459</v>
       </c>
       <c r="D25" t="n">
-        <v>436.492863273932</v>
+        <v>436.4928632739322</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4937922034609</v>
+        <v>357.4937922034611</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5178672174727</v>
+        <v>279.5178672174728</v>
       </c>
       <c r="G25" t="n">
         <v>180.7290531041137</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4258888338935</v>
+        <v>103.4258888338936</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01423416416095</v>
+        <v>75.01423416416097</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1368666110965</v>
+        <v>120.1368666110966</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1240495599729</v>
+        <v>324.124049559973</v>
       </c>
       <c r="L25" t="n">
-        <v>669.2966970061414</v>
+        <v>640.6838480084692</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.45374260569</v>
+        <v>984.8408936080183</v>
       </c>
       <c r="N25" t="n">
         <v>1354.862119311555</v>
@@ -6187,10 +6187,10 @@
         <v>1041.406167926352</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3306395402562</v>
+        <v>882.3306395402565</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4520829086482</v>
+        <v>730.4520829086484</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768669</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697982</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899644</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257019</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913837</v>
+        <v>449.484033191382</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415465</v>
+        <v>350.0437186415449</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643387</v>
+        <v>229.7905149643371</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302698</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6397,37 +6397,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519647</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,22 +6464,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>875.9322461484389</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1326.966459396848</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.101050269799</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899652</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257027</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643396</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1261.907203722595</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M32" t="n">
-        <v>2240.457506552424</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603403</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,7 +6856,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6895,13 +6895,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6923,55 +6923,55 @@
         <v>977.0598879830043</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5088595256948</v>
+        <v>639.5088595256944</v>
       </c>
       <c r="G35" t="n">
-        <v>297.8712857029885</v>
+        <v>297.8712857029887</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J35" t="n">
-        <v>262.601692603079</v>
+        <v>430.0073416234321</v>
       </c>
       <c r="K35" t="n">
-        <v>596.4210662929255</v>
+        <v>763.8267153132786</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.455279541334</v>
+        <v>1214.860928561687</v>
       </c>
       <c r="M35" t="n">
-        <v>1580.987184213259</v>
+        <v>1748.392833233612</v>
       </c>
       <c r="N35" t="n">
-        <v>2481.077816653679</v>
+        <v>2295.171650292394</v>
       </c>
       <c r="O35" t="n">
-        <v>2984.050287533016</v>
+        <v>2918.991031858764</v>
       </c>
       <c r="P35" t="n">
-        <v>3378.824653890194</v>
+        <v>3313.765398215943</v>
       </c>
       <c r="Q35" t="n">
-        <v>3627.111015645877</v>
+        <v>3562.051759971625</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.128082202679</v>
+        <v>3686.12808220268</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.272290062072</v>
+        <v>3649.272290062073</v>
       </c>
       <c r="T35" t="n">
-        <v>3516.729418778592</v>
+        <v>3516.729418778593</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.633818384726</v>
+        <v>3336.633818384727</v>
       </c>
       <c r="V35" t="n">
-        <v>3079.005807373453</v>
+        <v>3079.005807373454</v>
       </c>
       <c r="W35" t="n">
         <v>2799.672028435637</v>
@@ -7008,16 +7008,16 @@
         <v>183.2317476046481</v>
       </c>
       <c r="H36" t="n">
-        <v>92.72985324251562</v>
+        <v>92.72985324251565</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J36" t="n">
         <v>167.3998311346709</v>
       </c>
       <c r="K36" t="n">
-        <v>405.6640301150181</v>
+        <v>405.6640301150179</v>
       </c>
       <c r="L36" t="n">
         <v>772.3621904276832</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>628.5008034559328</v>
+        <v>584.7799913275936</v>
       </c>
       <c r="C37" t="n">
-        <v>532.9994968603237</v>
+        <v>489.2786847319844</v>
       </c>
       <c r="D37" t="n">
-        <v>456.3177337802858</v>
+        <v>412.5969216519464</v>
       </c>
       <c r="E37" t="n">
-        <v>381.8395165301906</v>
+        <v>338.118704401851</v>
       </c>
       <c r="F37" t="n">
-        <v>308.384445364578</v>
+        <v>264.6636332362384</v>
       </c>
       <c r="G37" t="n">
-        <v>170.3956729432548</v>
+        <v>170.395672943255</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61336249341039</v>
+        <v>97.61336249341053</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J37" t="n">
-        <v>118.8451940909891</v>
+        <v>118.8451940909892</v>
       </c>
       <c r="K37" t="n">
         <v>322.8323770398655</v>
       </c>
       <c r="L37" t="n">
-        <v>639.3921754883615</v>
+        <v>639.3921754883617</v>
       </c>
       <c r="M37" t="n">
         <v>983.5492210879106</v>
@@ -7117,28 +7117,28 @@
         <v>1934.504993300363</v>
       </c>
       <c r="R37" t="n">
-        <v>1918.109412390189</v>
+        <v>1918.109412390188</v>
       </c>
       <c r="S37" t="n">
         <v>1799.858404549313</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.526665451137</v>
+        <v>1607.805853322799</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.858674909078</v>
+        <v>1392.13786278074</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.609063035489</v>
+        <v>1210.888250907151</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.626769330826</v>
+        <v>994.9059572024877</v>
       </c>
       <c r="X37" t="n">
-        <v>884.0720947651068</v>
+        <v>840.351282636768</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.7143919538746</v>
+        <v>692.9935798255356</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.771727131516</v>
+        <v>1869.771727131518</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.244086523402</v>
+        <v>1574.244086523404</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.41326424895</v>
+        <v>1289.413264248951</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0598879830036</v>
+        <v>977.059887983005</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5088595256943</v>
+        <v>639.5088595256952</v>
       </c>
       <c r="G38" t="n">
         <v>297.8712857029886</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J38" t="n">
-        <v>262.601692603079</v>
+        <v>262.6016926030791</v>
       </c>
       <c r="K38" t="n">
-        <v>596.4210662929255</v>
+        <v>596.4210662929256</v>
       </c>
       <c r="L38" t="n">
         <v>1047.455279541334</v>
       </c>
       <c r="M38" t="n">
-        <v>1580.987184213259</v>
+        <v>1615.71827850513</v>
       </c>
       <c r="N38" t="n">
-        <v>2127.766001272041</v>
+        <v>2162.497095563912</v>
       </c>
       <c r="O38" t="n">
-        <v>2630.738472151378</v>
+        <v>2665.469566443249</v>
       </c>
       <c r="P38" t="n">
-        <v>3344.093559598324</v>
+        <v>3378.824653890195</v>
       </c>
       <c r="Q38" t="n">
-        <v>3627.111015645877</v>
+        <v>3627.111015645878</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.128082202679</v>
+        <v>3686.12808220268</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.272290062072</v>
+        <v>3649.272290062073</v>
       </c>
       <c r="T38" t="n">
-        <v>3516.729418778592</v>
+        <v>3516.729418778593</v>
       </c>
       <c r="U38" t="n">
-        <v>3336.633818384726</v>
+        <v>3336.633818384727</v>
       </c>
       <c r="V38" t="n">
-        <v>3079.005807373453</v>
+        <v>3079.005807373454</v>
       </c>
       <c r="W38" t="n">
-        <v>2799.672028435636</v>
+        <v>2799.672028435638</v>
       </c>
       <c r="X38" t="n">
-        <v>2499.641146506854</v>
+        <v>2499.641146506856</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.93669086334</v>
+        <v>2182.936690863342</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>183.2317476046481</v>
       </c>
       <c r="H39" t="n">
-        <v>92.72985324251562</v>
+        <v>92.72985324251565</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J39" t="n">
         <v>167.3998311346709</v>
       </c>
       <c r="K39" t="n">
-        <v>405.6640301150179</v>
+        <v>405.6640301150181</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3621904276832</v>
+        <v>772.3621904276835</v>
       </c>
       <c r="M39" t="n">
         <v>1219.638515649999</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7799913275933</v>
+        <v>584.7799913275932</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2786847319842</v>
+        <v>489.2786847319841</v>
       </c>
       <c r="D40" t="n">
-        <v>412.5969216519462</v>
+        <v>412.5969216519461</v>
       </c>
       <c r="E40" t="n">
         <v>338.1187044018508</v>
@@ -7324,19 +7324,19 @@
         <v>170.3956729432549</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61336249341048</v>
+        <v>97.61336249341046</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J40" t="n">
-        <v>118.8451940909891</v>
+        <v>118.8451940909892</v>
       </c>
       <c r="K40" t="n">
         <v>322.8323770398655</v>
       </c>
       <c r="L40" t="n">
-        <v>639.3921754883615</v>
+        <v>639.3921754883617</v>
       </c>
       <c r="M40" t="n">
         <v>983.5492210879106</v>
@@ -7354,28 +7354,28 @@
         <v>1934.504993300363</v>
       </c>
       <c r="R40" t="n">
-        <v>1874.38860026185</v>
+        <v>1918.109412390189</v>
       </c>
       <c r="S40" t="n">
-        <v>1756.137592420974</v>
+        <v>1799.858404549313</v>
       </c>
       <c r="T40" t="n">
-        <v>1607.805853322798</v>
+        <v>1651.526665451137</v>
       </c>
       <c r="U40" t="n">
-        <v>1392.137862780739</v>
+        <v>1435.858674909078</v>
       </c>
       <c r="V40" t="n">
         <v>1210.88825090715</v>
       </c>
       <c r="W40" t="n">
-        <v>994.9059572024871</v>
+        <v>994.905957202487</v>
       </c>
       <c r="X40" t="n">
-        <v>840.3512826367676</v>
+        <v>840.3512826367675</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.9935798255352</v>
+        <v>692.9935798255351</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1661.889780057721</v>
+        <v>1661.889780057722</v>
       </c>
       <c r="C41" t="n">
-        <v>1661.889780057721</v>
+        <v>1340.376896065384</v>
       </c>
       <c r="D41" t="n">
-        <v>1351.073714399044</v>
+        <v>1029.560830406706</v>
       </c>
       <c r="E41" t="n">
-        <v>1012.735094748873</v>
+        <v>691.2222107565353</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4793462941433</v>
+        <v>327.685938915001</v>
       </c>
       <c r="G41" t="n">
-        <v>323.8565290872131</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J41" t="n">
-        <v>262.601692603079</v>
+        <v>262.6016926030791</v>
       </c>
       <c r="K41" t="n">
-        <v>596.4210662929255</v>
+        <v>596.4210662929256</v>
       </c>
       <c r="L41" t="n">
-        <v>1400.767094922972</v>
+        <v>1400.767094922973</v>
       </c>
       <c r="M41" t="n">
-        <v>1934.298999594897</v>
+        <v>1934.298999594898</v>
       </c>
       <c r="N41" t="n">
-        <v>2481.077816653679</v>
+        <v>2481.07781665368</v>
       </c>
       <c r="O41" t="n">
-        <v>2984.050287533016</v>
+        <v>2984.050287533017</v>
       </c>
       <c r="P41" t="n">
-        <v>3378.824653890194</v>
+        <v>3378.824653890195</v>
       </c>
       <c r="Q41" t="n">
-        <v>3627.111015645877</v>
+        <v>3627.111015645878</v>
       </c>
       <c r="R41" t="n">
-        <v>3686.128082202679</v>
+        <v>3686.12808220268</v>
       </c>
       <c r="S41" t="n">
-        <v>3623.287046677848</v>
+        <v>3623.287046677849</v>
       </c>
       <c r="T41" t="n">
-        <v>3464.758932010143</v>
+        <v>3464.758932010144</v>
       </c>
       <c r="U41" t="n">
-        <v>3258.678088232053</v>
+        <v>3258.678088232054</v>
       </c>
       <c r="V41" t="n">
-        <v>2975.064833836555</v>
+        <v>2975.064833836556</v>
       </c>
       <c r="W41" t="n">
         <v>2669.745811514515</v>
       </c>
       <c r="X41" t="n">
-        <v>2343.729686201507</v>
+        <v>2343.729686201509</v>
       </c>
       <c r="Y41" t="n">
-        <v>2001.039987173769</v>
+        <v>2001.03998717377</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7482,16 @@
         <v>183.2317476046481</v>
       </c>
       <c r="H42" t="n">
-        <v>92.72985324251562</v>
+        <v>92.72985324251565</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J42" t="n">
         <v>167.3998311346709</v>
       </c>
       <c r="K42" t="n">
-        <v>405.6640301150181</v>
+        <v>405.6640301150179</v>
       </c>
       <c r="L42" t="n">
         <v>772.3621904276832</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766950171648</v>
+        <v>766.6766950171643</v>
       </c>
       <c r="C43" t="n">
-        <v>645.1901450373311</v>
+        <v>645.1901450373307</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5231385730686</v>
+        <v>542.5231385730683</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596779387488</v>
+        <v>442.0596779387485</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193633889117</v>
+        <v>342.6193633889114</v>
       </c>
       <c r="G43" t="n">
-        <v>222.3661597117039</v>
+        <v>222.3661597117036</v>
       </c>
       <c r="H43" t="n">
         <v>123.598605877635</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J43" t="n">
-        <v>165.350579343396</v>
+        <v>165.3505793433958</v>
       </c>
       <c r="K43" t="n">
-        <v>415.8431475446791</v>
+        <v>415.843147544679</v>
       </c>
       <c r="L43" t="n">
         <v>778.9083312455818</v>
       </c>
       <c r="M43" t="n">
-        <v>1169.570762097538</v>
+        <v>1169.570762097537</v>
       </c>
       <c r="N43" t="n">
         <v>1557.484524055809</v>
@@ -7603,16 +7603,16 @@
         <v>1703.960783391433</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.72592813362</v>
+        <v>1496.725928133619</v>
       </c>
       <c r="W43" t="n">
         <v>1254.758391044732</v>
       </c>
       <c r="X43" t="n">
-        <v>1074.218473094788</v>
+        <v>1074.218473094787</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8755268993312</v>
+        <v>900.8755268993307</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.889780057721</v>
+        <v>1661.889780057722</v>
       </c>
       <c r="C44" t="n">
-        <v>1365.831683794355</v>
+        <v>1340.376896065383</v>
       </c>
       <c r="D44" t="n">
-        <v>1055.015618135678</v>
+        <v>1029.560830406706</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.015618135678</v>
+        <v>691.4793462941434</v>
       </c>
       <c r="F44" t="n">
         <v>691.4793462941434</v>
@@ -7640,43 +7640,43 @@
         <v>323.8565290872131</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="I44" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J44" t="n">
         <v>262.6016926030791</v>
       </c>
       <c r="K44" t="n">
-        <v>596.4210662929257</v>
+        <v>596.4210662929256</v>
       </c>
       <c r="L44" t="n">
-        <v>1400.767094922972</v>
+        <v>1335.707839248721</v>
       </c>
       <c r="M44" t="n">
-        <v>1934.298999594897</v>
+        <v>1869.239743920645</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.077816653679</v>
+        <v>2416.018560979428</v>
       </c>
       <c r="O44" t="n">
-        <v>2984.050287533016</v>
+        <v>2918.991031858764</v>
       </c>
       <c r="P44" t="n">
-        <v>3378.824653890194</v>
+        <v>3313.765398215943</v>
       </c>
       <c r="Q44" t="n">
-        <v>3627.111015645877</v>
+        <v>3562.051759971625</v>
       </c>
       <c r="R44" t="n">
-        <v>3686.128082202679</v>
+        <v>3686.12808220268</v>
       </c>
       <c r="S44" t="n">
-        <v>3623.287046677848</v>
+        <v>3623.287046677849</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.758932010143</v>
+        <v>3464.758932010144</v>
       </c>
       <c r="U44" t="n">
         <v>3258.678088232053</v>
@@ -7691,7 +7691,7 @@
         <v>2343.729686201508</v>
       </c>
       <c r="Y44" t="n">
-        <v>2001.039987173769</v>
+        <v>2001.03998717377</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>948.7542996929792</v>
+        <v>948.7542996929789</v>
       </c>
       <c r="C45" t="n">
-        <v>774.3012704118522</v>
+        <v>774.3012704118519</v>
       </c>
       <c r="D45" t="n">
-        <v>625.3668607506011</v>
+        <v>625.3668607506006</v>
       </c>
       <c r="E45" t="n">
-        <v>466.1294057451455</v>
+        <v>466.129405745145</v>
       </c>
       <c r="F45" t="n">
-        <v>319.5948477720306</v>
+        <v>319.59484777203</v>
       </c>
       <c r="G45" t="n">
-        <v>183.2317476046486</v>
+        <v>183.2317476046481</v>
       </c>
       <c r="H45" t="n">
-        <v>92.72985324251601</v>
+        <v>92.72985324251565</v>
       </c>
       <c r="I45" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J45" t="n">
-        <v>167.3998311346708</v>
+        <v>167.3998311346709</v>
       </c>
       <c r="K45" t="n">
-        <v>405.6640301150181</v>
+        <v>405.6640301150179</v>
       </c>
       <c r="L45" t="n">
         <v>772.3621904276832</v>
@@ -7740,28 +7740,28 @@
         <v>1693.161559204454</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.122838622509</v>
+        <v>2104.122838622508</v>
       </c>
       <c r="P45" t="n">
-        <v>2414.622430098612</v>
+        <v>2414.622430098611</v>
       </c>
       <c r="Q45" t="n">
-        <v>2572.263987745212</v>
+        <v>2572.263987745211</v>
       </c>
       <c r="R45" t="n">
-        <v>2572.119634337727</v>
+        <v>2572.119634337726</v>
       </c>
       <c r="S45" t="n">
-        <v>2442.681747831207</v>
+        <v>2442.681747831206</v>
       </c>
       <c r="T45" t="n">
-        <v>2250.038747509063</v>
+        <v>2250.038747509062</v>
       </c>
       <c r="U45" t="n">
         <v>2021.970900643478</v>
       </c>
       <c r="V45" t="n">
-        <v>1786.818792411736</v>
+        <v>1786.818792411735</v>
       </c>
       <c r="W45" t="n">
         <v>1532.581435683534</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.6766950171649</v>
+        <v>766.6766950171647</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901450373313</v>
+        <v>645.190145037331</v>
       </c>
       <c r="D46" t="n">
-        <v>542.5231385730688</v>
+        <v>542.5231385730686</v>
       </c>
       <c r="E46" t="n">
         <v>442.0596779387488</v>
@@ -7795,52 +7795,52 @@
         <v>342.6193633889117</v>
       </c>
       <c r="G46" t="n">
-        <v>222.3661597117039</v>
+        <v>222.366159711704</v>
       </c>
       <c r="H46" t="n">
         <v>123.598605877635</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72256164405358</v>
+        <v>73.7225616440536</v>
       </c>
       <c r="J46" t="n">
-        <v>165.3505793433965</v>
+        <v>165.3505793433957</v>
       </c>
       <c r="K46" t="n">
-        <v>415.8431475446795</v>
+        <v>415.8431475446787</v>
       </c>
       <c r="L46" t="n">
-        <v>778.9083312455823</v>
+        <v>778.9083312455815</v>
       </c>
       <c r="M46" t="n">
-        <v>1169.570762097538</v>
+        <v>1169.570762097537</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.484524055809</v>
+        <v>1557.484524055808</v>
       </c>
       <c r="O46" t="n">
-        <v>1903.319508228629</v>
+        <v>1903.319508228628</v>
       </c>
       <c r="P46" t="n">
-        <v>2182.432393914695</v>
+        <v>2182.432393914694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2306.548075319617</v>
+        <v>2306.548075319616</v>
       </c>
       <c r="R46" t="n">
-        <v>2264.167251025218</v>
+        <v>2264.167251025217</v>
       </c>
       <c r="S46" t="n">
-        <v>2119.930999800118</v>
+        <v>2119.930999800117</v>
       </c>
       <c r="T46" t="n">
-        <v>1945.614017317717</v>
+        <v>1945.614017317716</v>
       </c>
       <c r="U46" t="n">
-        <v>1703.960783391434</v>
+        <v>1703.960783391433</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.72592813362</v>
+        <v>1496.725928133619</v>
       </c>
       <c r="W46" t="n">
         <v>1254.758391044732</v>
@@ -7849,7 +7849,7 @@
         <v>1074.218473094788</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8755268993314</v>
+        <v>900.8755268993311</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>213.6222210651734</v>
+        <v>213.622221065174</v>
       </c>
       <c r="L5" t="n">
-        <v>227.7427480730725</v>
+        <v>227.7427480730733</v>
       </c>
       <c r="M5" t="n">
-        <v>221.4183578093561</v>
+        <v>221.418357809357</v>
       </c>
       <c r="N5" t="n">
-        <v>220.340725820606</v>
+        <v>220.3407258206069</v>
       </c>
       <c r="O5" t="n">
-        <v>221.5314601210353</v>
+        <v>221.5314601210362</v>
       </c>
       <c r="P5" t="n">
-        <v>223.9214717189597</v>
+        <v>223.9214717189605</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>124.2674182837027</v>
+        <v>124.2674182837029</v>
       </c>
       <c r="K6" t="n">
-        <v>133.4485434711054</v>
+        <v>133.4485434711058</v>
       </c>
       <c r="L6" t="n">
-        <v>132.6475896587733</v>
+        <v>132.6475896587739</v>
       </c>
       <c r="M6" t="n">
-        <v>135.2410884559846</v>
+        <v>135.2410884559854</v>
       </c>
       <c r="N6" t="n">
-        <v>124.2663308614131</v>
+        <v>124.2663308614138</v>
       </c>
       <c r="O6" t="n">
-        <v>136.1236529143089</v>
+        <v>136.1236529143096</v>
       </c>
       <c r="P6" t="n">
-        <v>128.7795820776473</v>
+        <v>128.7795820776478</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.5091709209974</v>
+        <v>136.5091709209977</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>131.493873749985</v>
+        <v>131.4938737499854</v>
       </c>
       <c r="M7" t="n">
-        <v>135.3506581039949</v>
+        <v>135.3506581039953</v>
       </c>
       <c r="N7" t="n">
-        <v>124.1954271233849</v>
+        <v>124.1954271233853</v>
       </c>
       <c r="O7" t="n">
-        <v>135.2328501947848</v>
+        <v>135.2328501947852</v>
       </c>
       <c r="P7" t="n">
-        <v>134.9695818358791</v>
+        <v>134.9695818358794</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.01317957285983</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.150673193892089</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.52018570663927</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>274.8351763665433</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.52018570663824</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>40.02214132148703</v>
+        <v>65.51711806374288</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>356.8806215976142</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>122.067586552559</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>35.08191342613236</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.08191342613199</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8806215976142</v>
+        <v>356.8806215976149</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8806215976138</v>
+        <v>291.1642017246324</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731945</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68.40553639689224</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>31.73550625763981</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-3.042012364330506e-14</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866902</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>210.0015899910197</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.4246748089793</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6511634549086</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>73.78656772332158</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0130563692508</v>
       </c>
     </row>
     <row r="18">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.78656772332226</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6511634549086</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96287950137298</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0160864306102</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.4587652462462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="I28" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>41.857718152937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>112.522845536623</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25865,16 +25865,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>25.20023985168267</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>0.2545641822322793</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>841469.2182203458</v>
+        <v>841469.2182203461</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716950.2875883018</v>
+        <v>716950.2875883017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738854.9504180063</v>
+        <v>738854.9504180064</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792286.0034865818</v>
+        <v>792286.0034865817</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780585.8195563273</v>
+        <v>780585.8195563274</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754067.5720568543</v>
+        <v>754067.5720568545</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754067.5720568543</v>
+        <v>754067.5720568545</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415565</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
         <v>675906.3184096357</v>
       </c>
       <c r="D2" t="n">
-        <v>675912.2250543867</v>
+        <v>675912.2250543865</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591205</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591205</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="G2" t="n">
-        <v>650274.6743315591</v>
+        <v>650274.6743315603</v>
       </c>
       <c r="H2" t="n">
-        <v>650274.6743315604</v>
+        <v>650274.6743315592</v>
       </c>
       <c r="I2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="J2" t="n">
         <v>677359.460138034</v>
@@ -26341,19 +26341,19 @@
         <v>677359.460138034</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="N2" t="n">
         <v>677359.4601380343</v>
       </c>
       <c r="O2" t="n">
+        <v>653708.0502060712</v>
+      </c>
+      <c r="P2" t="n">
         <v>653708.0502060711</v>
-      </c>
-      <c r="P2" t="n">
-        <v>653708.0502060709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11516.93564635085</v>
+        <v>11516.93564634964</v>
       </c>
       <c r="D3" t="n">
-        <v>19161.11082457729</v>
+        <v>19161.11082457843</v>
       </c>
       <c r="E3" t="n">
         <v>1133211.97770721</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.14561756497</v>
+        <v>28261.14561756509</v>
       </c>
       <c r="J3" t="n">
         <v>40637.55827117596</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.79653456826</v>
+        <v>16999.79653456829</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.6432226563</v>
+        <v>204641.6432226562</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>427502.4600095631</v>
+        <v>427502.4600095635</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
@@ -26427,37 +26427,37 @@
         <v>57605.61344858623</v>
       </c>
       <c r="F4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="G4" t="n">
         <v>71014.73426374714</v>
       </c>
       <c r="H4" t="n">
-        <v>71014.73426374714</v>
+        <v>71014.7342637471</v>
       </c>
       <c r="I4" t="n">
-        <v>84463.62970892369</v>
+        <v>84463.62970892366</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646588</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
-        <v>85258.29733264261</v>
+        <v>85258.29733264256</v>
       </c>
       <c r="N4" t="n">
-        <v>85258.29733264257</v>
+        <v>85258.2973326426</v>
       </c>
       <c r="O4" t="n">
-        <v>69011.30398647298</v>
+        <v>69011.30398647304</v>
       </c>
       <c r="P4" t="n">
-        <v>69011.30398647298</v>
+        <v>69011.30398647304</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33903.31781864135</v>
+        <v>33903.31781864132</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.93819036253</v>
+        <v>80041.93819036252</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.93819036253</v>
+        <v>80041.93819036252</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.54766666546</v>
+        <v>86503.54766666547</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,10 +26503,10 @@
         <v>85898.13957461077</v>
       </c>
       <c r="N5" t="n">
-        <v>85898.13957461076</v>
+        <v>85898.13957461077</v>
       </c>
       <c r="O5" t="n">
-        <v>83735.43168280307</v>
+        <v>83735.43168280309</v>
       </c>
       <c r="P5" t="n">
         <v>83735.43168280309</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211376.8699988806</v>
+        <v>211372.4564210129</v>
       </c>
       <c r="C6" t="n">
-        <v>202983.6049350804</v>
+        <v>202979.2014752982</v>
       </c>
       <c r="D6" t="n">
-        <v>200765.0595062595</v>
+        <v>200760.6739453986</v>
       </c>
       <c r="E6" t="n">
-        <v>-638335.0013184574</v>
+        <v>-638476.2782183934</v>
       </c>
       <c r="F6" t="n">
-        <v>494876.9763887526</v>
+        <v>494735.6994888164</v>
       </c>
       <c r="G6" t="n">
-        <v>482218.2053428813</v>
+        <v>482136.130234378</v>
       </c>
       <c r="H6" t="n">
-        <v>499218.0018774507</v>
+        <v>499135.9267689451</v>
       </c>
       <c r="I6" t="n">
-        <v>478131.1371448796</v>
+        <v>478131.13714488</v>
       </c>
       <c r="J6" t="n">
         <v>466588.596585586</v>
@@ -26549,19 +26549,19 @@
         <v>507226.154856762</v>
       </c>
       <c r="L6" t="n">
-        <v>490226.3583221936</v>
+        <v>490226.3583221937</v>
       </c>
       <c r="M6" t="n">
-        <v>301561.3800081242</v>
+        <v>301561.3800081245</v>
       </c>
       <c r="N6" t="n">
-        <v>506203.0232307811</v>
+        <v>506203.023230781</v>
       </c>
       <c r="O6" t="n">
-        <v>500961.314536795</v>
+        <v>500889.6435976074</v>
       </c>
       <c r="P6" t="n">
-        <v>500961.3145367948</v>
+        <v>500889.6435976073</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>68.22488228680284</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.64760635969485</v>
+        <v>12.64760635969352</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6779270520119</v>
+        <v>937.6779270520121</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5320205506698</v>
+        <v>921.53202055067</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5320205506698</v>
+        <v>921.53202055067</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5320205506698</v>
+        <v>921.53202055067</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5320205506698</v>
+        <v>921.53202055067</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24974566821027</v>
+        <v>21.24974566821028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72539095038225</v>
+        <v>25.72539095038224</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24974566821033</v>
+        <v>21.24974566821036</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72539095038231</v>
+        <v>25.72539095038217</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.64760635969485</v>
+        <v>12.64760635969352</v>
       </c>
       <c r="D3" t="n">
-        <v>22.37365435943047</v>
+        <v>22.3736543594318</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2764716497192</v>
+        <v>106.2764716497196</v>
       </c>
       <c r="J4" t="n">
         <v>76.65853415660274</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.5970147443479</v>
+        <v>738.597014744348</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24974566821027</v>
+        <v>21.24974566821028</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72539095038225</v>
+        <v>25.72539095038224</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.9540893574506</v>
+        <v>338.9540893574507</v>
       </c>
       <c r="I5" t="n">
-        <v>208.5157012520858</v>
+        <v>208.515701252086</v>
       </c>
       <c r="J5" t="n">
-        <v>7.633913353522464</v>
+        <v>7.633913353522916</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.500049159165923</v>
+        <v>4.500049159166498</v>
       </c>
       <c r="R5" t="n">
-        <v>146.675247778367</v>
+        <v>146.6752477783674</v>
       </c>
       <c r="S5" t="n">
-        <v>207.8614471543999</v>
+        <v>207.8614471544001</v>
       </c>
       <c r="T5" t="n">
         <v>222.8732771145251</v>
@@ -27713,7 +27713,7 @@
         <v>111.97270811193</v>
       </c>
       <c r="I6" t="n">
-        <v>88.45999407855088</v>
+        <v>88.45999407855098</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.46878211841822</v>
+        <v>98.4687821184184</v>
       </c>
       <c r="S6" t="n">
         <v>171.1778634346557</v>
@@ -27792,13 +27792,13 @@
         <v>162.0243961300661</v>
       </c>
       <c r="I7" t="n">
-        <v>154.7646014545063</v>
+        <v>154.7646014545064</v>
       </c>
       <c r="J7" t="n">
-        <v>91.74671397471627</v>
+        <v>91.74671397471644</v>
       </c>
       <c r="K7" t="n">
-        <v>19.61971462462219</v>
+        <v>19.61971462462247</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.25225469138046</v>
+        <v>84.25225469138066</v>
       </c>
       <c r="R7" t="n">
-        <v>176.2678985729883</v>
+        <v>176.2678985729884</v>
       </c>
       <c r="S7" t="n">
         <v>223.6191314567832</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>68.22488228680284</v>
       </c>
       <c r="J19" t="n">
-        <v>28.90186767441635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.90186767441651</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.90186767441634</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.90186767441645</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,13 +29223,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>28.90186767441651</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.90186767441611</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22488228680284</v>
+        <v>68.22488228680281</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="C35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="D35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="E35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="F35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="G35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="H35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="T35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="U35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="V35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="W35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="X35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="C37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="D37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="E37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="F37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="G37" t="n">
-        <v>29.4169235619182</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="H37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="I37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="T37" t="n">
-        <v>72.70052756897486</v>
+        <v>29.41692356192038</v>
       </c>
       <c r="U37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="V37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="W37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.70052756897486</v>
+        <v>72.70052756897474</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.41692356191921</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70052756897478</v>
+        <v>29.4169235619193</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70052756897478</v>
+        <v>72.70052756897481</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859324</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0508446486821903</v>
+        <v>0.05084464868218497</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5207127583164816</v>
+        <v>0.5207127583164269</v>
       </c>
       <c r="I5" t="n">
-        <v>1.960188318320143</v>
+        <v>1.960188318319938</v>
       </c>
       <c r="J5" t="n">
-        <v>4.315376001090053</v>
+        <v>4.315376001089601</v>
       </c>
       <c r="K5" t="n">
-        <v>6.467629979807169</v>
+        <v>6.467629979806492</v>
       </c>
       <c r="L5" t="n">
-        <v>8.023666896914753</v>
+        <v>8.023666896913911</v>
       </c>
       <c r="M5" t="n">
-        <v>8.927875417916654</v>
+        <v>8.927875417915718</v>
       </c>
       <c r="N5" t="n">
-        <v>9.072337775984927</v>
+        <v>9.072337775983977</v>
       </c>
       <c r="O5" t="n">
-        <v>8.566751300651397</v>
+        <v>8.5667513006505</v>
       </c>
       <c r="P5" t="n">
-        <v>7.311524036309823</v>
+        <v>7.311524036309057</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.490650055378882</v>
+        <v>5.490650055378306</v>
       </c>
       <c r="R5" t="n">
-        <v>3.193870162782639</v>
+        <v>3.193870162782305</v>
       </c>
       <c r="S5" t="n">
-        <v>1.158622431845413</v>
+        <v>1.158622431845291</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2225724496062881</v>
+        <v>0.2225724496062648</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004067571894575223</v>
+        <v>0.004067571894574797</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02720428537745684</v>
+        <v>0.02720428537745399</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2627361245664911</v>
+        <v>0.2627361245664636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9366387728641939</v>
+        <v>0.9366387728640958</v>
       </c>
       <c r="J6" t="n">
-        <v>2.570208382964026</v>
+        <v>2.570208382963756</v>
       </c>
       <c r="K6" t="n">
-        <v>4.392895503253634</v>
+        <v>4.392895503253174</v>
       </c>
       <c r="L6" t="n">
-        <v>5.906790121100881</v>
+        <v>5.906790121100262</v>
       </c>
       <c r="M6" t="n">
-        <v>6.89294546603369</v>
+        <v>6.892945466032968</v>
       </c>
       <c r="N6" t="n">
-        <v>7.075381221920233</v>
+        <v>7.075381221919492</v>
       </c>
       <c r="O6" t="n">
-        <v>6.472591530135531</v>
+        <v>6.472591530134853</v>
       </c>
       <c r="P6" t="n">
-        <v>5.194825336682965</v>
+        <v>5.19482533668242</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.47260316502414</v>
+        <v>3.472603165023776</v>
       </c>
       <c r="R6" t="n">
-        <v>1.689052034224909</v>
+        <v>1.689052034224732</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5053076691821475</v>
+        <v>0.5053076691820946</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1096523607977317</v>
+        <v>0.1096523607977202</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001789755616937951</v>
+        <v>0.001789755616937763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02280715900928578</v>
+        <v>0.02280715900928339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2027763773734683</v>
+        <v>0.2027763773734471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6858734727519764</v>
+        <v>0.6858734727519045</v>
       </c>
       <c r="J7" t="n">
-        <v>1.612466141956505</v>
+        <v>1.612466141956336</v>
       </c>
       <c r="K7" t="n">
-        <v>2.649777201260657</v>
+        <v>2.649777201260379</v>
       </c>
       <c r="L7" t="n">
-        <v>3.390802531253271</v>
+        <v>3.390802531252916</v>
       </c>
       <c r="M7" t="n">
-        <v>3.575125843610134</v>
+        <v>3.57512584360976</v>
       </c>
       <c r="N7" t="n">
-        <v>3.490117341848253</v>
+        <v>3.490117341847888</v>
       </c>
       <c r="O7" t="n">
-        <v>3.223688257057959</v>
+        <v>3.223688257057622</v>
       </c>
       <c r="P7" t="n">
-        <v>2.758422213268527</v>
+        <v>2.758422213268238</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.909788560313922</v>
+        <v>1.909788560313722</v>
       </c>
       <c r="R7" t="n">
-        <v>1.025492804181159</v>
+        <v>1.025492804181051</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3974665801890985</v>
+        <v>0.3974665801890568</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09744877031240287</v>
+        <v>0.09744877031239267</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001244026855051953</v>
+        <v>0.001244026855051823</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34211,10 +34211,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,16 +35574,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.48028428748258</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36048,7 +36048,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5352470679003</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36288,10 +36288,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>373.7588138419564</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>331.2549978970562</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8001805415725</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>542.0717890241189</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>348.6592398446146</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>373.7588138419563</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>785.2736850426335</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>461.2821719260111</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36771,7 +36771,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>612.0264629219438</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,7 +36841,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>614.8220211195497</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37008,7 +37008,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>495.6122557138192</v>
+        <v>521.1072324560751</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>909.1824570105257</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>630.1205874407781</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>574.0030292563591</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37561,7 +37561,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>285.8762182298515</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>812.4707359899463</v>
+        <v>812.4707359899471</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37859,10 +37859,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>812.4707359899461</v>
+        <v>746.7543161169646</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165949</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
